--- a/Class_VIII/Assamese/Result.xlsx
+++ b/Class_VIII/Assamese/Result.xlsx
@@ -28,258 +28,258 @@
     <t>Roll No</t>
   </si>
   <si>
-    <t>Formative Assessment I_Science</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Science_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Science_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Computer</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Computer_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Computer_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_English II</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_English II_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_English II_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Assamese</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Assamese_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Assamese_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Social Science</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Social Science_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Social Science_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Maths</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Maths_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Maths_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_English I</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_English I_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_English I_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Science</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Science_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Science_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Computer</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Computer_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Computer_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_English II</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_English II_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_English II_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Assamese</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Assamese_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Assamese_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Social Science</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Social Science_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Social Science_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Maths</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Maths_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Maths_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_English I</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_English I_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_English I_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Science</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Science_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Science_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Computer</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Computer_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Computer_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_English II</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_English II_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_English II_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Assamese</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Assamese_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Assamese_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Social Science</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Social Science_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Social Science_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Maths</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Maths_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Maths_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_English I</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_English I_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_English I_pass</t>
+    <t>FA-I_Social Science</t>
+  </si>
+  <si>
+    <t>FA-I_Social Science_total</t>
+  </si>
+  <si>
+    <t>FA-I_Social Science_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Computer</t>
+  </si>
+  <si>
+    <t>FA-I_Computer_total</t>
+  </si>
+  <si>
+    <t>FA-I_Computer_pass</t>
+  </si>
+  <si>
+    <t>FA-I_English II</t>
+  </si>
+  <si>
+    <t>FA-I_English II_total</t>
+  </si>
+  <si>
+    <t>FA-I_English II_pass</t>
+  </si>
+  <si>
+    <t>FA-I_English I</t>
+  </si>
+  <si>
+    <t>FA-I_English I_total</t>
+  </si>
+  <si>
+    <t>FA-I_English I_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Assamese</t>
+  </si>
+  <si>
+    <t>FA-I_Assamese_total</t>
+  </si>
+  <si>
+    <t>FA-I_Assamese_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Science</t>
+  </si>
+  <si>
+    <t>FA-I_Science_total</t>
+  </si>
+  <si>
+    <t>FA-I_Science_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Maths</t>
+  </si>
+  <si>
+    <t>FA-I_Maths_total</t>
+  </si>
+  <si>
+    <t>FA-I_Maths_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Social Science</t>
+  </si>
+  <si>
+    <t>FA-II_Social Science_total</t>
+  </si>
+  <si>
+    <t>FA-II_Social Science_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Computer</t>
+  </si>
+  <si>
+    <t>FA-II_Computer_total</t>
+  </si>
+  <si>
+    <t>FA-II_Computer_pass</t>
+  </si>
+  <si>
+    <t>FA-II_English II</t>
+  </si>
+  <si>
+    <t>FA-II_English II_total</t>
+  </si>
+  <si>
+    <t>FA-II_English II_pass</t>
+  </si>
+  <si>
+    <t>FA-II_English I</t>
+  </si>
+  <si>
+    <t>FA-II_English I_total</t>
+  </si>
+  <si>
+    <t>FA-II_English I_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Assamese</t>
+  </si>
+  <si>
+    <t>FA-II_Assamese_total</t>
+  </si>
+  <si>
+    <t>FA-II_Assamese_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Science</t>
+  </si>
+  <si>
+    <t>FA-II_Science_total</t>
+  </si>
+  <si>
+    <t>FA-II_Science_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Maths</t>
+  </si>
+  <si>
+    <t>FA-II_Maths_total</t>
+  </si>
+  <si>
+    <t>FA-II_Maths_pass</t>
+  </si>
+  <si>
+    <t>HY_Social Science</t>
+  </si>
+  <si>
+    <t>HY_Social Science_total</t>
+  </si>
+  <si>
+    <t>HY_Social Science_pass</t>
+  </si>
+  <si>
+    <t>HY_Computer</t>
+  </si>
+  <si>
+    <t>HY_Computer_total</t>
+  </si>
+  <si>
+    <t>HY_Computer_pass</t>
+  </si>
+  <si>
+    <t>HY_English II</t>
+  </si>
+  <si>
+    <t>HY_English II_total</t>
+  </si>
+  <si>
+    <t>HY_English II_pass</t>
+  </si>
+  <si>
+    <t>HY_English I</t>
+  </si>
+  <si>
+    <t>HY_English I_total</t>
+  </si>
+  <si>
+    <t>HY_English I_pass</t>
+  </si>
+  <si>
+    <t>HY_Assamese</t>
+  </si>
+  <si>
+    <t>HY_Assamese_total</t>
+  </si>
+  <si>
+    <t>HY_Assamese_pass</t>
+  </si>
+  <si>
+    <t>HY_Science</t>
+  </si>
+  <si>
+    <t>HY_Science_total</t>
+  </si>
+  <si>
+    <t>HY_Science_pass</t>
+  </si>
+  <si>
+    <t>HY_Maths</t>
+  </si>
+  <si>
+    <t>HY_Maths_total</t>
+  </si>
+  <si>
+    <t>HY_Maths_pass</t>
+  </si>
+  <si>
+    <t>Weightage Social Science</t>
+  </si>
+  <si>
+    <t>Weightage Computer</t>
+  </si>
+  <si>
+    <t>Weightage English II</t>
+  </si>
+  <si>
+    <t>Weightage English I</t>
+  </si>
+  <si>
+    <t>Weightage Assamese</t>
   </si>
   <si>
     <t>Weightage Science</t>
   </si>
   <si>
-    <t>Weightage Computer</t>
-  </si>
-  <si>
-    <t>Weightage English II</t>
-  </si>
-  <si>
-    <t>Weightage Assamese</t>
-  </si>
-  <si>
-    <t>Weightage Social Science</t>
-  </si>
-  <si>
     <t>Weightage Maths</t>
   </si>
   <si>
-    <t>Weightage English I</t>
+    <t>Weightage Social Science total</t>
+  </si>
+  <si>
+    <t>Weightage Computer total</t>
+  </si>
+  <si>
+    <t>Weightage English II total</t>
+  </si>
+  <si>
+    <t>Weightage English I total</t>
+  </si>
+  <si>
+    <t>Weightage Assamese total</t>
   </si>
   <si>
     <t>Weightage Science total</t>
   </si>
   <si>
-    <t>Weightage Computer total</t>
-  </si>
-  <si>
-    <t>Weightage English II total</t>
-  </si>
-  <si>
-    <t>Weightage Assamese total</t>
-  </si>
-  <si>
-    <t>Weightage Social Science total</t>
-  </si>
-  <si>
     <t>Weightage Maths total</t>
   </si>
   <si>
-    <t>Weightage English I total</t>
+    <t>Result Social Science</t>
+  </si>
+  <si>
+    <t>Result Computer</t>
+  </si>
+  <si>
+    <t>Result English II</t>
+  </si>
+  <si>
+    <t>Result English I</t>
+  </si>
+  <si>
+    <t>Result Assamese</t>
   </si>
   <si>
     <t>Result Science</t>
   </si>
   <si>
-    <t>Result Computer</t>
-  </si>
-  <si>
-    <t>Result English II</t>
-  </si>
-  <si>
-    <t>Result Assamese</t>
-  </si>
-  <si>
-    <t>Result Social Science</t>
-  </si>
-  <si>
     <t>Result Maths</t>
   </si>
   <si>
-    <t>Result English I</t>
-  </si>
-  <si>
     <t>Total Weightage</t>
   </si>
   <si>
@@ -295,13 +295,13 @@
     <t>Rank</t>
   </si>
   <si>
-    <t>Pallabi Chakraborty</t>
-  </si>
-  <si>
-    <t>Sumit rohang</t>
-  </si>
-  <si>
-    <t>Alangbor boro</t>
+    <t>Hangshika Kalita</t>
+  </si>
+  <si>
+    <t>Marging Hajong</t>
+  </si>
+  <si>
+    <t>Anuska Hazarika</t>
   </si>
   <si>
     <t>VIII</t>
@@ -969,10 +969,10 @@
         <v>97</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="F2">
         <v>25</v>
@@ -981,7 +981,7 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>11.5</v>
+        <v>3.5</v>
       </c>
       <c r="I2">
         <v>25</v>
@@ -990,7 +990,7 @@
         <v>7</v>
       </c>
       <c r="K2">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="L2">
         <v>25</v>
@@ -999,7 +999,7 @@
         <v>7</v>
       </c>
       <c r="N2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O2">
         <v>25</v>
@@ -1008,7 +1008,7 @@
         <v>7</v>
       </c>
       <c r="Q2">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="R2">
         <v>25</v>
@@ -1017,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="T2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="U2">
         <v>25</v>
@@ -1026,7 +1026,7 @@
         <v>7</v>
       </c>
       <c r="W2">
-        <v>21.5</v>
+        <v>9</v>
       </c>
       <c r="X2">
         <v>25</v>
@@ -1035,7 +1035,7 @@
         <v>7</v>
       </c>
       <c r="Z2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AA2">
         <v>25</v>
@@ -1044,7 +1044,7 @@
         <v>7</v>
       </c>
       <c r="AC2">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="AD2">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="AF2">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AG2">
         <v>25</v>
@@ -1062,7 +1062,7 @@
         <v>7</v>
       </c>
       <c r="AI2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ2">
         <v>25</v>
@@ -1071,7 +1071,7 @@
         <v>7</v>
       </c>
       <c r="AL2">
-        <v>21.5</v>
+        <v>8</v>
       </c>
       <c r="AM2">
         <v>25</v>
@@ -1080,7 +1080,7 @@
         <v>7</v>
       </c>
       <c r="AO2">
-        <v>22</v>
+        <v>4.5</v>
       </c>
       <c r="AP2">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>7</v>
       </c>
       <c r="AR2">
-        <v>18</v>
+        <v>7.5</v>
       </c>
       <c r="AS2">
         <v>25</v>
@@ -1098,7 +1098,7 @@
         <v>7</v>
       </c>
       <c r="AU2">
-        <v>71.5</v>
+        <v>49</v>
       </c>
       <c r="AV2">
         <v>100</v>
@@ -1107,7 +1107,7 @@
         <v>30</v>
       </c>
       <c r="AX2">
-        <v>56</v>
+        <v>58.5</v>
       </c>
       <c r="AY2">
         <v>100</v>
@@ -1116,7 +1116,7 @@
         <v>30</v>
       </c>
       <c r="BA2">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="BB2">
         <v>100</v>
@@ -1125,7 +1125,7 @@
         <v>30</v>
       </c>
       <c r="BD2">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="BE2">
         <v>100</v>
@@ -1134,7 +1134,7 @@
         <v>30</v>
       </c>
       <c r="BG2">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="BH2">
         <v>100</v>
@@ -1143,7 +1143,7 @@
         <v>30</v>
       </c>
       <c r="BJ2">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="BK2">
         <v>100</v>
@@ -1152,7 +1152,7 @@
         <v>30</v>
       </c>
       <c r="BM2">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="BN2">
         <v>100</v>
@@ -1161,25 +1161,25 @@
         <v>30</v>
       </c>
       <c r="BP2">
-        <v>66.2</v>
+        <v>47.4</v>
       </c>
       <c r="BQ2">
-        <v>56.2</v>
+        <v>49.6</v>
       </c>
       <c r="BR2">
-        <v>71.59999999999999</v>
+        <v>50.4</v>
       </c>
       <c r="BS2">
-        <v>75.2</v>
+        <v>52.4</v>
       </c>
       <c r="BT2">
-        <v>65.2</v>
+        <v>49.4</v>
       </c>
       <c r="BU2">
-        <v>64.8</v>
+        <v>43.4</v>
       </c>
       <c r="BV2">
-        <v>66.2</v>
+        <v>50.6</v>
       </c>
       <c r="BW2">
         <v>100</v>
@@ -1224,7 +1224,7 @@
         <v>98</v>
       </c>
       <c r="CK2">
-        <v>465.4</v>
+        <v>343.2</v>
       </c>
       <c r="CL2" t="s">
         <v>98</v>
@@ -1233,10 +1233,10 @@
         <v>700</v>
       </c>
       <c r="CN2">
-        <v>66.48571428571428</v>
+        <v>49.02857142857143</v>
       </c>
       <c r="CO2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -1253,116 +1253,116 @@
         <v>9</v>
       </c>
       <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>25</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
         <v>9</v>
       </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
+      <c r="O3">
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>13.5</v>
+      </c>
+      <c r="R3">
+        <v>25</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>10.5</v>
+      </c>
+      <c r="U3">
+        <v>25</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>14</v>
+      </c>
+      <c r="X3">
+        <v>25</v>
+      </c>
+      <c r="Y3">
+        <v>7</v>
+      </c>
+      <c r="Z3">
+        <v>21</v>
+      </c>
+      <c r="AA3">
+        <v>25</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AC3">
+        <v>20.5</v>
+      </c>
+      <c r="AD3">
+        <v>25</v>
+      </c>
+      <c r="AE3">
+        <v>7</v>
+      </c>
+      <c r="AF3">
+        <v>11</v>
+      </c>
+      <c r="AG3">
+        <v>25</v>
+      </c>
+      <c r="AH3">
+        <v>7</v>
+      </c>
+      <c r="AI3">
+        <v>15</v>
+      </c>
+      <c r="AJ3">
+        <v>25</v>
+      </c>
+      <c r="AK3">
+        <v>7</v>
+      </c>
+      <c r="AL3">
+        <v>15</v>
+      </c>
+      <c r="AM3">
+        <v>25</v>
+      </c>
+      <c r="AN3">
+        <v>7</v>
+      </c>
+      <c r="AO3">
         <v>12</v>
       </c>
-      <c r="I3">
-        <v>25</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>7.5</v>
-      </c>
-      <c r="L3">
-        <v>25</v>
-      </c>
-      <c r="M3">
-        <v>7</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>25</v>
-      </c>
-      <c r="P3">
-        <v>7</v>
-      </c>
-      <c r="Q3">
-        <v>7.5</v>
-      </c>
-      <c r="R3">
-        <v>25</v>
-      </c>
-      <c r="S3">
-        <v>7</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>25</v>
-      </c>
-      <c r="V3">
-        <v>7</v>
-      </c>
-      <c r="W3">
-        <v>15.5</v>
-      </c>
-      <c r="X3">
-        <v>25</v>
-      </c>
-      <c r="Y3">
-        <v>7</v>
-      </c>
-      <c r="Z3">
-        <v>10</v>
-      </c>
-      <c r="AA3">
-        <v>25</v>
-      </c>
-      <c r="AB3">
-        <v>7</v>
-      </c>
-      <c r="AC3">
-        <v>14</v>
-      </c>
-      <c r="AD3">
-        <v>25</v>
-      </c>
-      <c r="AE3">
-        <v>7</v>
-      </c>
-      <c r="AF3">
-        <v>6.5</v>
-      </c>
-      <c r="AG3">
-        <v>25</v>
-      </c>
-      <c r="AH3">
-        <v>7</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>25</v>
-      </c>
-      <c r="AK3">
-        <v>7</v>
-      </c>
-      <c r="AL3">
-        <v>9.5</v>
-      </c>
-      <c r="AM3">
-        <v>25</v>
-      </c>
-      <c r="AN3">
-        <v>7</v>
-      </c>
-      <c r="AO3">
-        <v>4</v>
-      </c>
       <c r="AP3">
         <v>25</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>7</v>
       </c>
       <c r="AR3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AS3">
         <v>25</v>
@@ -1379,7 +1379,7 @@
         <v>7</v>
       </c>
       <c r="AU3">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AV3">
         <v>100</v>
@@ -1388,7 +1388,7 @@
         <v>30</v>
       </c>
       <c r="AX3">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="AY3">
         <v>100</v>
@@ -1397,7 +1397,7 @@
         <v>30</v>
       </c>
       <c r="BA3">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="BB3">
         <v>100</v>
@@ -1406,7 +1406,7 @@
         <v>30</v>
       </c>
       <c r="BD3">
-        <v>30.5</v>
+        <v>65</v>
       </c>
       <c r="BE3">
         <v>100</v>
@@ -1415,7 +1415,7 @@
         <v>30</v>
       </c>
       <c r="BG3">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="BH3">
         <v>100</v>
@@ -1424,7 +1424,7 @@
         <v>30</v>
       </c>
       <c r="BJ3">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="BK3">
         <v>100</v>
@@ -1433,7 +1433,7 @@
         <v>30</v>
       </c>
       <c r="BM3">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="BN3">
         <v>100</v>
@@ -1442,25 +1442,25 @@
         <v>30</v>
       </c>
       <c r="BP3">
-        <v>33.2</v>
+        <v>70.8</v>
       </c>
       <c r="BQ3">
-        <v>37.6</v>
+        <v>63</v>
       </c>
       <c r="BR3">
-        <v>44</v>
+        <v>52.4</v>
       </c>
       <c r="BS3">
-        <v>25.2</v>
+        <v>61.6</v>
       </c>
       <c r="BT3">
-        <v>36.4</v>
+        <v>48.2</v>
       </c>
       <c r="BU3">
-        <v>12.4</v>
+        <v>54.6</v>
       </c>
       <c r="BV3">
-        <v>38.2</v>
+        <v>64</v>
       </c>
       <c r="BW3">
         <v>100</v>
@@ -1493,19 +1493,19 @@
         <v>98</v>
       </c>
       <c r="CG3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CH3" t="s">
         <v>98</v>
       </c>
       <c r="CI3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CJ3" t="s">
         <v>98</v>
       </c>
       <c r="CK3">
-        <v>227</v>
+        <v>414.6</v>
       </c>
       <c r="CL3" t="s">
         <v>98</v>
@@ -1514,10 +1514,10 @@
         <v>700</v>
       </c>
       <c r="CN3">
-        <v>32.42857142857143</v>
+        <v>59.22857142857143</v>
       </c>
       <c r="CO3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1531,128 +1531,128 @@
         <v>97</v>
       </c>
       <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>13.5</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>25</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>25</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>10.5</v>
+      </c>
+      <c r="R4">
+        <v>25</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>25</v>
+      </c>
+      <c r="V4">
+        <v>7</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>25</v>
+      </c>
+      <c r="Y4">
+        <v>7</v>
+      </c>
+      <c r="Z4">
+        <v>6</v>
+      </c>
+      <c r="AA4">
+        <v>25</v>
+      </c>
+      <c r="AB4">
+        <v>7</v>
+      </c>
+      <c r="AC4">
+        <v>9</v>
+      </c>
+      <c r="AD4">
+        <v>25</v>
+      </c>
+      <c r="AE4">
+        <v>7</v>
+      </c>
+      <c r="AF4">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>25</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <v>19</v>
-      </c>
-      <c r="L4">
-        <v>25</v>
-      </c>
-      <c r="M4">
-        <v>7</v>
-      </c>
-      <c r="N4">
-        <v>7.5</v>
-      </c>
-      <c r="O4">
-        <v>25</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>3.5</v>
-      </c>
-      <c r="R4">
-        <v>25</v>
-      </c>
-      <c r="S4">
-        <v>7</v>
-      </c>
-      <c r="T4">
-        <v>8.5</v>
-      </c>
-      <c r="U4">
-        <v>25</v>
-      </c>
-      <c r="V4">
-        <v>7</v>
-      </c>
-      <c r="W4">
+      <c r="AG4">
+        <v>25</v>
+      </c>
+      <c r="AH4">
+        <v>7</v>
+      </c>
+      <c r="AI4">
+        <v>10</v>
+      </c>
+      <c r="AJ4">
+        <v>25</v>
+      </c>
+      <c r="AK4">
+        <v>7</v>
+      </c>
+      <c r="AL4">
+        <v>5.5</v>
+      </c>
+      <c r="AM4">
+        <v>25</v>
+      </c>
+      <c r="AN4">
+        <v>7</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>25</v>
+      </c>
+      <c r="AQ4">
+        <v>7</v>
+      </c>
+      <c r="AR4">
         <v>5</v>
       </c>
-      <c r="X4">
-        <v>25</v>
-      </c>
-      <c r="Y4">
-        <v>7</v>
-      </c>
-      <c r="Z4">
-        <v>11</v>
-      </c>
-      <c r="AA4">
-        <v>25</v>
-      </c>
-      <c r="AB4">
-        <v>7</v>
-      </c>
-      <c r="AC4">
-        <v>12</v>
-      </c>
-      <c r="AD4">
-        <v>25</v>
-      </c>
-      <c r="AE4">
-        <v>7</v>
-      </c>
-      <c r="AF4">
-        <v>9</v>
-      </c>
-      <c r="AG4">
-        <v>25</v>
-      </c>
-      <c r="AH4">
-        <v>7</v>
-      </c>
-      <c r="AI4">
-        <v>9.5</v>
-      </c>
-      <c r="AJ4">
-        <v>25</v>
-      </c>
-      <c r="AK4">
-        <v>7</v>
-      </c>
-      <c r="AL4">
-        <v>5</v>
-      </c>
-      <c r="AM4">
-        <v>25</v>
-      </c>
-      <c r="AN4">
-        <v>7</v>
-      </c>
-      <c r="AO4">
-        <v>13</v>
-      </c>
-      <c r="AP4">
-        <v>25</v>
-      </c>
-      <c r="AQ4">
-        <v>7</v>
-      </c>
-      <c r="AR4">
-        <v>12</v>
-      </c>
       <c r="AS4">
         <v>25</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>7</v>
       </c>
       <c r="AU4">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="AV4">
         <v>100</v>
@@ -1669,7 +1669,7 @@
         <v>30</v>
       </c>
       <c r="AX4">
-        <v>29</v>
+        <v>48.5</v>
       </c>
       <c r="AY4">
         <v>100</v>
@@ -1678,7 +1678,7 @@
         <v>30</v>
       </c>
       <c r="BA4">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="BB4">
         <v>100</v>
@@ -1687,7 +1687,7 @@
         <v>30</v>
       </c>
       <c r="BD4">
-        <v>48.5</v>
+        <v>30</v>
       </c>
       <c r="BE4">
         <v>100</v>
@@ -1696,7 +1696,7 @@
         <v>30</v>
       </c>
       <c r="BG4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="BH4">
         <v>100</v>
@@ -1705,7 +1705,7 @@
         <v>30</v>
       </c>
       <c r="BJ4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BK4">
         <v>100</v>
@@ -1714,7 +1714,7 @@
         <v>30</v>
       </c>
       <c r="BM4">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="BN4">
         <v>100</v>
@@ -1723,25 +1723,25 @@
         <v>30</v>
       </c>
       <c r="BP4">
-        <v>49.6</v>
+        <v>30.4</v>
       </c>
       <c r="BQ4">
-        <v>29.6</v>
+        <v>47.8</v>
       </c>
       <c r="BR4">
-        <v>56</v>
+        <v>40.8</v>
       </c>
       <c r="BS4">
-        <v>45.6</v>
+        <v>31.2</v>
       </c>
       <c r="BT4">
-        <v>35.4</v>
+        <v>30.4</v>
       </c>
       <c r="BU4">
-        <v>29.4</v>
+        <v>22.4</v>
       </c>
       <c r="BV4">
-        <v>52.4</v>
+        <v>20.8</v>
       </c>
       <c r="BW4">
         <v>100</v>
@@ -1768,7 +1768,7 @@
         <v>98</v>
       </c>
       <c r="CE4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CF4" t="s">
         <v>98</v>
@@ -1783,10 +1783,10 @@
         <v>99</v>
       </c>
       <c r="CJ4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CK4">
-        <v>298</v>
+        <v>223.8</v>
       </c>
       <c r="CL4" t="s">
         <v>98</v>
@@ -1795,10 +1795,10 @@
         <v>700</v>
       </c>
       <c r="CN4">
-        <v>42.57142857142857</v>
+        <v>31.97142857142857</v>
       </c>
       <c r="CO4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Class_VIII/Assamese/Result.xlsx
+++ b/Class_VIII/Assamese/Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
   <si>
     <t>Student Name</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>Anuska Hazarika</t>
+  </si>
+  <si>
+    <t>Bitop jyoti Sarma</t>
   </si>
   <si>
     <t>VIII</t>
@@ -671,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CO4"/>
+  <dimension ref="A1:CO5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -963,10 +966,10 @@
         <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -1203,31 +1206,31 @@
         <v>100</v>
       </c>
       <c r="CD2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CE2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CF2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CG2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CH2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CI2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CJ2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CK2">
         <v>343.2</v>
       </c>
       <c r="CL2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CM2">
         <v>700</v>
@@ -1244,10 +1247,10 @@
         <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -1484,31 +1487,31 @@
         <v>100</v>
       </c>
       <c r="CD3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CE3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CF3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CG3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CH3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CI3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CJ3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CK3">
         <v>414.6</v>
       </c>
       <c r="CL3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CM3">
         <v>700</v>
@@ -1525,10 +1528,10 @@
         <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -1765,31 +1768,31 @@
         <v>100</v>
       </c>
       <c r="CD4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CE4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CF4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CG4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CH4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CI4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CJ4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CK4">
         <v>223.8</v>
       </c>
       <c r="CL4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CM4">
         <v>700</v>
@@ -1799,6 +1802,287 @@
       </c>
       <c r="CO4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>25</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>25</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>25</v>
+      </c>
+      <c r="V5">
+        <v>7</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>25</v>
+      </c>
+      <c r="Y5">
+        <v>7</v>
+      </c>
+      <c r="Z5">
+        <v>9</v>
+      </c>
+      <c r="AA5">
+        <v>25</v>
+      </c>
+      <c r="AB5">
+        <v>7</v>
+      </c>
+      <c r="AC5">
+        <v>5.5</v>
+      </c>
+      <c r="AD5">
+        <v>25</v>
+      </c>
+      <c r="AE5">
+        <v>7</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>25</v>
+      </c>
+      <c r="AH5">
+        <v>7</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>25</v>
+      </c>
+      <c r="AK5">
+        <v>7</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>25</v>
+      </c>
+      <c r="AN5">
+        <v>7</v>
+      </c>
+      <c r="AO5">
+        <v>4</v>
+      </c>
+      <c r="AP5">
+        <v>25</v>
+      </c>
+      <c r="AQ5">
+        <v>7</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>25</v>
+      </c>
+      <c r="AT5">
+        <v>7</v>
+      </c>
+      <c r="AU5">
+        <v>43</v>
+      </c>
+      <c r="AV5">
+        <v>100</v>
+      </c>
+      <c r="AW5">
+        <v>30</v>
+      </c>
+      <c r="AX5">
+        <v>44</v>
+      </c>
+      <c r="AY5">
+        <v>100</v>
+      </c>
+      <c r="AZ5">
+        <v>30</v>
+      </c>
+      <c r="BA5">
+        <v>42</v>
+      </c>
+      <c r="BB5">
+        <v>100</v>
+      </c>
+      <c r="BC5">
+        <v>30</v>
+      </c>
+      <c r="BD5">
+        <v>35</v>
+      </c>
+      <c r="BE5">
+        <v>100</v>
+      </c>
+      <c r="BF5">
+        <v>30</v>
+      </c>
+      <c r="BG5">
+        <v>16</v>
+      </c>
+      <c r="BH5">
+        <v>100</v>
+      </c>
+      <c r="BI5">
+        <v>30</v>
+      </c>
+      <c r="BJ5">
+        <v>34</v>
+      </c>
+      <c r="BK5">
+        <v>100</v>
+      </c>
+      <c r="BL5">
+        <v>30</v>
+      </c>
+      <c r="BM5">
+        <v>36</v>
+      </c>
+      <c r="BN5">
+        <v>100</v>
+      </c>
+      <c r="BO5">
+        <v>30</v>
+      </c>
+      <c r="BP5">
+        <v>38</v>
+      </c>
+      <c r="BQ5">
+        <v>37.4</v>
+      </c>
+      <c r="BR5">
+        <v>33.6</v>
+      </c>
+      <c r="BS5">
+        <v>28</v>
+      </c>
+      <c r="BT5">
+        <v>12.8</v>
+      </c>
+      <c r="BU5">
+        <v>28.8</v>
+      </c>
+      <c r="BV5">
+        <v>28.8</v>
+      </c>
+      <c r="BW5">
+        <v>100</v>
+      </c>
+      <c r="BX5">
+        <v>100</v>
+      </c>
+      <c r="BY5">
+        <v>100</v>
+      </c>
+      <c r="BZ5">
+        <v>100</v>
+      </c>
+      <c r="CA5">
+        <v>100</v>
+      </c>
+      <c r="CB5">
+        <v>100</v>
+      </c>
+      <c r="CC5">
+        <v>100</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CK5">
+        <v>207.4</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CM5">
+        <v>700</v>
+      </c>
+      <c r="CN5">
+        <v>29.62857142857143</v>
+      </c>
+      <c r="CO5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Class_VIII/Assamese/Result.xlsx
+++ b/Class_VIII/Assamese/Result.xlsx
@@ -28,256 +28,256 @@
     <t>Roll No</t>
   </si>
   <si>
-    <t>FA-I_Social Science</t>
-  </si>
-  <si>
-    <t>FA-I_Social Science_total</t>
-  </si>
-  <si>
-    <t>FA-I_Social Science_pass</t>
-  </si>
-  <si>
-    <t>FA-I_Computer</t>
-  </si>
-  <si>
-    <t>FA-I_Computer_total</t>
-  </si>
-  <si>
-    <t>FA-I_Computer_pass</t>
-  </si>
-  <si>
-    <t>FA-I_English II</t>
-  </si>
-  <si>
-    <t>FA-I_English II_total</t>
-  </si>
-  <si>
-    <t>FA-I_English II_pass</t>
-  </si>
-  <si>
-    <t>FA-I_English I</t>
-  </si>
-  <si>
-    <t>FA-I_English I_total</t>
-  </si>
-  <si>
-    <t>FA-I_English I_pass</t>
-  </si>
-  <si>
-    <t>FA-I_Assamese</t>
-  </si>
-  <si>
-    <t>FA-I_Assamese_total</t>
-  </si>
-  <si>
-    <t>FA-I_Assamese_pass</t>
-  </si>
-  <si>
-    <t>FA-I_Science</t>
-  </si>
-  <si>
-    <t>FA-I_Science_total</t>
-  </si>
-  <si>
-    <t>FA-I_Science_pass</t>
-  </si>
-  <si>
-    <t>FA-I_Maths</t>
-  </si>
-  <si>
-    <t>FA-I_Maths_total</t>
-  </si>
-  <si>
-    <t>FA-I_Maths_pass</t>
-  </si>
-  <si>
-    <t>FA-II_Social Science</t>
-  </si>
-  <si>
-    <t>FA-II_Social Science_total</t>
-  </si>
-  <si>
-    <t>FA-II_Social Science_pass</t>
-  </si>
-  <si>
-    <t>FA-II_Computer</t>
-  </si>
-  <si>
-    <t>FA-II_Computer_total</t>
-  </si>
-  <si>
-    <t>FA-II_Computer_pass</t>
-  </si>
-  <si>
-    <t>FA-II_English II</t>
-  </si>
-  <si>
-    <t>FA-II_English II_total</t>
-  </si>
-  <si>
-    <t>FA-II_English II_pass</t>
-  </si>
-  <si>
-    <t>FA-II_English I</t>
-  </si>
-  <si>
-    <t>FA-II_English I_total</t>
-  </si>
-  <si>
-    <t>FA-II_English I_pass</t>
-  </si>
-  <si>
-    <t>FA-II_Assamese</t>
-  </si>
-  <si>
-    <t>FA-II_Assamese_total</t>
-  </si>
-  <si>
-    <t>FA-II_Assamese_pass</t>
-  </si>
-  <si>
-    <t>FA-II_Science</t>
-  </si>
-  <si>
-    <t>FA-II_Science_total</t>
-  </si>
-  <si>
-    <t>FA-II_Science_pass</t>
-  </si>
-  <si>
-    <t>FA-II_Maths</t>
-  </si>
-  <si>
-    <t>FA-II_Maths_total</t>
-  </si>
-  <si>
-    <t>FA-II_Maths_pass</t>
-  </si>
-  <si>
-    <t>HY_Social Science</t>
-  </si>
-  <si>
-    <t>HY_Social Science_total</t>
-  </si>
-  <si>
-    <t>HY_Social Science_pass</t>
-  </si>
-  <si>
-    <t>HY_Computer</t>
-  </si>
-  <si>
-    <t>HY_Computer_total</t>
-  </si>
-  <si>
-    <t>HY_Computer_pass</t>
-  </si>
-  <si>
-    <t>HY_English II</t>
-  </si>
-  <si>
-    <t>HY_English II_total</t>
-  </si>
-  <si>
-    <t>HY_English II_pass</t>
-  </si>
-  <si>
-    <t>HY_English I</t>
-  </si>
-  <si>
-    <t>HY_English I_total</t>
-  </si>
-  <si>
-    <t>HY_English I_pass</t>
-  </si>
-  <si>
-    <t>HY_Assamese</t>
-  </si>
-  <si>
-    <t>HY_Assamese_total</t>
-  </si>
-  <si>
-    <t>HY_Assamese_pass</t>
-  </si>
-  <si>
-    <t>HY_Science</t>
-  </si>
-  <si>
-    <t>HY_Science_total</t>
-  </si>
-  <si>
-    <t>HY_Science_pass</t>
-  </si>
-  <si>
-    <t>HY_Maths</t>
-  </si>
-  <si>
-    <t>HY_Maths_total</t>
-  </si>
-  <si>
-    <t>HY_Maths_pass</t>
+    <t>FA-III_Maths</t>
+  </si>
+  <si>
+    <t>FA-III_Maths_total</t>
+  </si>
+  <si>
+    <t>FA-III_Maths_pass</t>
+  </si>
+  <si>
+    <t>FA-III_Assamese</t>
+  </si>
+  <si>
+    <t>FA-III_Assamese_total</t>
+  </si>
+  <si>
+    <t>FA-III_Assamese_pass</t>
+  </si>
+  <si>
+    <t>FA-III_Science</t>
+  </si>
+  <si>
+    <t>FA-III_Science_total</t>
+  </si>
+  <si>
+    <t>FA-III_Science_pass</t>
+  </si>
+  <si>
+    <t>FA-III_Computer</t>
+  </si>
+  <si>
+    <t>FA-III_Computer_total</t>
+  </si>
+  <si>
+    <t>FA-III_Computer_pass</t>
+  </si>
+  <si>
+    <t>FA-III_Social Science</t>
+  </si>
+  <si>
+    <t>FA-III_Social Science_total</t>
+  </si>
+  <si>
+    <t>FA-III_Social Science_pass</t>
+  </si>
+  <si>
+    <t>FA-III_English I</t>
+  </si>
+  <si>
+    <t>FA-III_English I_total</t>
+  </si>
+  <si>
+    <t>FA-III_English I_pass</t>
+  </si>
+  <si>
+    <t>FA-III_English II</t>
+  </si>
+  <si>
+    <t>FA-III_English II_total</t>
+  </si>
+  <si>
+    <t>FA-III_English II_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_Maths</t>
+  </si>
+  <si>
+    <t>FA-IV_Maths_total</t>
+  </si>
+  <si>
+    <t>FA-IV_Maths_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_Assamese</t>
+  </si>
+  <si>
+    <t>FA-IV_Assamese_total</t>
+  </si>
+  <si>
+    <t>FA-IV_Assamese_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_Science</t>
+  </si>
+  <si>
+    <t>FA-IV_Science_total</t>
+  </si>
+  <si>
+    <t>FA-IV_Science_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_Computer</t>
+  </si>
+  <si>
+    <t>FA-IV_Computer_total</t>
+  </si>
+  <si>
+    <t>FA-IV_Computer_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_Social Science</t>
+  </si>
+  <si>
+    <t>FA-IV_Social Science_total</t>
+  </si>
+  <si>
+    <t>FA-IV_Social Science_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_English I</t>
+  </si>
+  <si>
+    <t>FA-IV_English I_total</t>
+  </si>
+  <si>
+    <t>FA-IV_English I_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_English II</t>
+  </si>
+  <si>
+    <t>FA-IV_English II_total</t>
+  </si>
+  <si>
+    <t>FA-IV_English II_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_Maths</t>
+  </si>
+  <si>
+    <t>ANNUAL_Maths_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_Maths_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_Assamese</t>
+  </si>
+  <si>
+    <t>ANNUAL_Assamese_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_Assamese_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_Science</t>
+  </si>
+  <si>
+    <t>ANNUAL_Science_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_Science_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_Computer</t>
+  </si>
+  <si>
+    <t>ANNUAL_Computer_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_Computer_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_Social Science</t>
+  </si>
+  <si>
+    <t>ANNUAL_Social Science_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_Social Science_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_English I</t>
+  </si>
+  <si>
+    <t>ANNUAL_English I_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_English I_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_English II</t>
+  </si>
+  <si>
+    <t>ANNUAL_English II_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_English II_pass</t>
+  </si>
+  <si>
+    <t>Weightage Maths</t>
+  </si>
+  <si>
+    <t>Weightage Assamese</t>
+  </si>
+  <si>
+    <t>Weightage Science</t>
+  </si>
+  <si>
+    <t>Weightage Computer</t>
   </si>
   <si>
     <t>Weightage Social Science</t>
   </si>
   <si>
-    <t>Weightage Computer</t>
+    <t>Weightage English I</t>
   </si>
   <si>
     <t>Weightage English II</t>
   </si>
   <si>
-    <t>Weightage English I</t>
-  </si>
-  <si>
-    <t>Weightage Assamese</t>
-  </si>
-  <si>
-    <t>Weightage Science</t>
-  </si>
-  <si>
-    <t>Weightage Maths</t>
+    <t>Weightage Maths total</t>
+  </si>
+  <si>
+    <t>Weightage Assamese total</t>
+  </si>
+  <si>
+    <t>Weightage Science total</t>
+  </si>
+  <si>
+    <t>Weightage Computer total</t>
   </si>
   <si>
     <t>Weightage Social Science total</t>
   </si>
   <si>
-    <t>Weightage Computer total</t>
+    <t>Weightage English I total</t>
   </si>
   <si>
     <t>Weightage English II total</t>
   </si>
   <si>
-    <t>Weightage English I total</t>
-  </si>
-  <si>
-    <t>Weightage Assamese total</t>
-  </si>
-  <si>
-    <t>Weightage Science total</t>
-  </si>
-  <si>
-    <t>Weightage Maths total</t>
+    <t>Result Maths</t>
+  </si>
+  <si>
+    <t>Result Assamese</t>
+  </si>
+  <si>
+    <t>Result Science</t>
+  </si>
+  <si>
+    <t>Result Computer</t>
   </si>
   <si>
     <t>Result Social Science</t>
   </si>
   <si>
-    <t>Result Computer</t>
+    <t>Result English I</t>
   </si>
   <si>
     <t>Result English II</t>
-  </si>
-  <si>
-    <t>Result English I</t>
-  </si>
-  <si>
-    <t>Result Assamese</t>
-  </si>
-  <si>
-    <t>Result Science</t>
-  </si>
-  <si>
-    <t>Result Maths</t>
   </si>
   <si>
     <t>Total Weightage</t>
@@ -984,7 +984,7 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>25</v>
@@ -993,7 +993,7 @@
         <v>7</v>
       </c>
       <c r="K2">
-        <v>15.5</v>
+        <v>7.5</v>
       </c>
       <c r="L2">
         <v>25</v>
@@ -1002,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="N2">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="O2">
         <v>25</v>
@@ -1011,7 +1011,7 @@
         <v>7</v>
       </c>
       <c r="Q2">
-        <v>15.5</v>
+        <v>5.5</v>
       </c>
       <c r="R2">
         <v>25</v>
@@ -1020,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="T2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="U2">
         <v>25</v>
@@ -1029,7 +1029,7 @@
         <v>7</v>
       </c>
       <c r="W2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X2">
         <v>25</v>
@@ -1038,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="Z2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>25</v>
@@ -1047,7 +1047,7 @@
         <v>7</v>
       </c>
       <c r="AC2">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="AD2">
         <v>25</v>
@@ -1056,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="AF2">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG2">
         <v>25</v>
@@ -1065,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="AI2">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AJ2">
         <v>25</v>
@@ -1074,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="AL2">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="AM2">
         <v>25</v>
@@ -1083,7 +1083,7 @@
         <v>7</v>
       </c>
       <c r="AO2">
-        <v>4.5</v>
+        <v>19</v>
       </c>
       <c r="AP2">
         <v>25</v>
@@ -1092,7 +1092,7 @@
         <v>7</v>
       </c>
       <c r="AR2">
-        <v>7.5</v>
+        <v>20</v>
       </c>
       <c r="AS2">
         <v>25</v>
@@ -1101,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="AU2">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AV2">
         <v>100</v>
@@ -1110,7 +1110,7 @@
         <v>30</v>
       </c>
       <c r="AX2">
-        <v>58.5</v>
+        <v>45.5</v>
       </c>
       <c r="AY2">
         <v>100</v>
@@ -1119,7 +1119,7 @@
         <v>30</v>
       </c>
       <c r="BA2">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="BB2">
         <v>100</v>
@@ -1128,7 +1128,7 @@
         <v>30</v>
       </c>
       <c r="BD2">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="BE2">
         <v>100</v>
@@ -1137,7 +1137,7 @@
         <v>30</v>
       </c>
       <c r="BG2">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="BH2">
         <v>100</v>
@@ -1146,7 +1146,7 @@
         <v>30</v>
       </c>
       <c r="BJ2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="BK2">
         <v>100</v>
@@ -1155,7 +1155,7 @@
         <v>30</v>
       </c>
       <c r="BM2">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="BN2">
         <v>100</v>
@@ -1164,25 +1164,25 @@
         <v>30</v>
       </c>
       <c r="BP2">
-        <v>47.4</v>
+        <v>67</v>
       </c>
       <c r="BQ2">
-        <v>49.6</v>
+        <v>46</v>
       </c>
       <c r="BR2">
-        <v>50.4</v>
+        <v>53.8</v>
       </c>
       <c r="BS2">
-        <v>52.4</v>
+        <v>46</v>
       </c>
       <c r="BT2">
-        <v>49.4</v>
+        <v>62.4</v>
       </c>
       <c r="BU2">
-        <v>43.4</v>
+        <v>78</v>
       </c>
       <c r="BV2">
-        <v>50.6</v>
+        <v>64.8</v>
       </c>
       <c r="BW2">
         <v>100</v>
@@ -1227,7 +1227,7 @@
         <v>99</v>
       </c>
       <c r="CK2">
-        <v>343.2</v>
+        <v>418</v>
       </c>
       <c r="CL2" t="s">
         <v>99</v>
@@ -1236,7 +1236,7 @@
         <v>700</v>
       </c>
       <c r="CN2">
-        <v>49.02857142857143</v>
+        <v>59.71428571428572</v>
       </c>
       <c r="CO2">
         <v>2</v>
@@ -1256,53 +1256,53 @@
         <v>9</v>
       </c>
       <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>14.5</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>12.5</v>
+      </c>
+      <c r="L3">
+        <v>25</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>21.5</v>
+      </c>
+      <c r="O3">
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>17</v>
+      </c>
+      <c r="R3">
+        <v>25</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
         <v>16</v>
       </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>25</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>8</v>
-      </c>
-      <c r="L3">
-        <v>25</v>
-      </c>
-      <c r="M3">
-        <v>7</v>
-      </c>
-      <c r="N3">
-        <v>9</v>
-      </c>
-      <c r="O3">
-        <v>25</v>
-      </c>
-      <c r="P3">
-        <v>7</v>
-      </c>
-      <c r="Q3">
-        <v>13.5</v>
-      </c>
-      <c r="R3">
-        <v>25</v>
-      </c>
-      <c r="S3">
-        <v>7</v>
-      </c>
-      <c r="T3">
-        <v>10.5</v>
-      </c>
       <c r="U3">
         <v>25</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>7</v>
       </c>
       <c r="W3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="X3">
         <v>25</v>
@@ -1319,53 +1319,53 @@
         <v>7</v>
       </c>
       <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>25</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AC3">
+        <v>12</v>
+      </c>
+      <c r="AD3">
+        <v>25</v>
+      </c>
+      <c r="AE3">
+        <v>7</v>
+      </c>
+      <c r="AF3">
+        <v>15.5</v>
+      </c>
+      <c r="AG3">
+        <v>25</v>
+      </c>
+      <c r="AH3">
+        <v>7</v>
+      </c>
+      <c r="AI3">
+        <v>23</v>
+      </c>
+      <c r="AJ3">
+        <v>25</v>
+      </c>
+      <c r="AK3">
+        <v>7</v>
+      </c>
+      <c r="AL3">
+        <v>16</v>
+      </c>
+      <c r="AM3">
+        <v>25</v>
+      </c>
+      <c r="AN3">
+        <v>7</v>
+      </c>
+      <c r="AO3">
         <v>21</v>
       </c>
-      <c r="AA3">
-        <v>25</v>
-      </c>
-      <c r="AB3">
-        <v>7</v>
-      </c>
-      <c r="AC3">
-        <v>20.5</v>
-      </c>
-      <c r="AD3">
-        <v>25</v>
-      </c>
-      <c r="AE3">
-        <v>7</v>
-      </c>
-      <c r="AF3">
-        <v>11</v>
-      </c>
-      <c r="AG3">
-        <v>25</v>
-      </c>
-      <c r="AH3">
-        <v>7</v>
-      </c>
-      <c r="AI3">
-        <v>15</v>
-      </c>
-      <c r="AJ3">
-        <v>25</v>
-      </c>
-      <c r="AK3">
-        <v>7</v>
-      </c>
-      <c r="AL3">
-        <v>15</v>
-      </c>
-      <c r="AM3">
-        <v>25</v>
-      </c>
-      <c r="AN3">
-        <v>7</v>
-      </c>
-      <c r="AO3">
-        <v>12</v>
-      </c>
       <c r="AP3">
         <v>25</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>7</v>
       </c>
       <c r="AR3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AS3">
         <v>25</v>
@@ -1382,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="AU3">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AV3">
         <v>100</v>
@@ -1391,7 +1391,7 @@
         <v>30</v>
       </c>
       <c r="AX3">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AY3">
         <v>100</v>
@@ -1400,7 +1400,7 @@
         <v>30</v>
       </c>
       <c r="BA3">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="BB3">
         <v>100</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="BD3">
-        <v>65</v>
+        <v>93.5</v>
       </c>
       <c r="BE3">
         <v>100</v>
@@ -1418,7 +1418,7 @@
         <v>30</v>
       </c>
       <c r="BG3">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="BH3">
         <v>100</v>
@@ -1427,7 +1427,7 @@
         <v>30</v>
       </c>
       <c r="BJ3">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="BK3">
         <v>100</v>
@@ -1436,7 +1436,7 @@
         <v>30</v>
       </c>
       <c r="BM3">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="BN3">
         <v>100</v>
@@ -1445,26 +1445,26 @@
         <v>30</v>
       </c>
       <c r="BP3">
-        <v>70.8</v>
+        <v>81</v>
       </c>
       <c r="BQ3">
-        <v>63</v>
+        <v>45.8</v>
       </c>
       <c r="BR3">
+        <v>75.2</v>
+      </c>
+      <c r="BS3">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="BT3">
+        <v>74</v>
+      </c>
+      <c r="BU3">
+        <v>81.2</v>
+      </c>
+      <c r="BV3">
         <v>52.4</v>
       </c>
-      <c r="BS3">
-        <v>61.6</v>
-      </c>
-      <c r="BT3">
-        <v>48.2</v>
-      </c>
-      <c r="BU3">
-        <v>54.6</v>
-      </c>
-      <c r="BV3">
-        <v>64</v>
-      </c>
       <c r="BW3">
         <v>100</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>99</v>
       </c>
       <c r="CK3">
-        <v>414.6</v>
+        <v>502.2</v>
       </c>
       <c r="CL3" t="s">
         <v>99</v>
@@ -1517,7 +1517,7 @@
         <v>700</v>
       </c>
       <c r="CN3">
-        <v>59.22857142857143</v>
+        <v>71.74285714285715</v>
       </c>
       <c r="CO3">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -1555,7 +1555,7 @@
         <v>7</v>
       </c>
       <c r="K4">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="L4">
         <v>25</v>
@@ -1564,53 +1564,53 @@
         <v>7</v>
       </c>
       <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>25</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>25</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>25</v>
+      </c>
+      <c r="V4">
+        <v>7</v>
+      </c>
+      <c r="W4">
         <v>8</v>
       </c>
-      <c r="O4">
-        <v>25</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>10.5</v>
-      </c>
-      <c r="R4">
-        <v>25</v>
-      </c>
-      <c r="S4">
-        <v>7</v>
-      </c>
-      <c r="T4">
+      <c r="X4">
+        <v>25</v>
+      </c>
+      <c r="Y4">
+        <v>7</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>25</v>
+      </c>
+      <c r="AB4">
+        <v>7</v>
+      </c>
+      <c r="AC4">
         <v>5</v>
       </c>
-      <c r="U4">
-        <v>25</v>
-      </c>
-      <c r="V4">
-        <v>7</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>25</v>
-      </c>
-      <c r="Y4">
-        <v>7</v>
-      </c>
-      <c r="Z4">
-        <v>6</v>
-      </c>
-      <c r="AA4">
-        <v>25</v>
-      </c>
-      <c r="AB4">
-        <v>7</v>
-      </c>
-      <c r="AC4">
-        <v>9</v>
-      </c>
       <c r="AD4">
         <v>25</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>7</v>
       </c>
       <c r="AF4">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG4">
         <v>25</v>
@@ -1636,7 +1636,7 @@
         <v>7</v>
       </c>
       <c r="AL4">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AM4">
         <v>25</v>
@@ -1645,7 +1645,7 @@
         <v>7</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AP4">
         <v>25</v>
@@ -1654,7 +1654,7 @@
         <v>7</v>
       </c>
       <c r="AR4">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AS4">
         <v>25</v>
@@ -1663,7 +1663,7 @@
         <v>7</v>
       </c>
       <c r="AU4">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AV4">
         <v>100</v>
@@ -1672,7 +1672,7 @@
         <v>30</v>
       </c>
       <c r="AX4">
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="AY4">
         <v>100</v>
@@ -1681,7 +1681,7 @@
         <v>30</v>
       </c>
       <c r="BA4">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="BB4">
         <v>100</v>
@@ -1690,7 +1690,7 @@
         <v>30</v>
       </c>
       <c r="BD4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="BE4">
         <v>100</v>
@@ -1699,7 +1699,7 @@
         <v>30</v>
       </c>
       <c r="BG4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BH4">
         <v>100</v>
@@ -1708,7 +1708,7 @@
         <v>30</v>
       </c>
       <c r="BJ4">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="BK4">
         <v>100</v>
@@ -1717,7 +1717,7 @@
         <v>30</v>
       </c>
       <c r="BM4">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="BN4">
         <v>100</v>
@@ -1726,25 +1726,25 @@
         <v>30</v>
       </c>
       <c r="BP4">
-        <v>30.4</v>
+        <v>26</v>
       </c>
       <c r="BQ4">
-        <v>47.8</v>
+        <v>35.4</v>
       </c>
       <c r="BR4">
-        <v>40.8</v>
+        <v>39.4</v>
       </c>
       <c r="BS4">
-        <v>31.2</v>
+        <v>32.4</v>
       </c>
       <c r="BT4">
-        <v>30.4</v>
+        <v>35.2</v>
       </c>
       <c r="BU4">
-        <v>22.4</v>
+        <v>58.4</v>
       </c>
       <c r="BV4">
-        <v>20.8</v>
+        <v>52.8</v>
       </c>
       <c r="BW4">
         <v>100</v>
@@ -1768,7 +1768,7 @@
         <v>100</v>
       </c>
       <c r="CD4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CE4" t="s">
         <v>99</v>
@@ -1783,13 +1783,13 @@
         <v>99</v>
       </c>
       <c r="CI4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CJ4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CK4">
-        <v>223.8</v>
+        <v>279.6</v>
       </c>
       <c r="CL4" t="s">
         <v>99</v>
@@ -1798,10 +1798,10 @@
         <v>700</v>
       </c>
       <c r="CN4">
-        <v>31.97142857142857</v>
+        <v>39.94285714285714</v>
       </c>
       <c r="CO4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1818,71 +1818,71 @@
         <v>12</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>2.5</v>
+      </c>
+      <c r="O5">
+        <v>25</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>4.5</v>
+      </c>
+      <c r="R5">
+        <v>25</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>25</v>
+      </c>
+      <c r="V5">
+        <v>7</v>
+      </c>
+      <c r="W5">
+        <v>6</v>
+      </c>
+      <c r="X5">
+        <v>25</v>
+      </c>
+      <c r="Y5">
+        <v>7</v>
+      </c>
+      <c r="Z5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>25</v>
-      </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>25</v>
-      </c>
-      <c r="M5">
-        <v>7</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>25</v>
-      </c>
-      <c r="P5">
-        <v>7</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>25</v>
-      </c>
-      <c r="S5">
-        <v>7</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>25</v>
-      </c>
-      <c r="V5">
-        <v>7</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>25</v>
-      </c>
-      <c r="Y5">
-        <v>7</v>
-      </c>
-      <c r="Z5">
-        <v>9</v>
-      </c>
       <c r="AA5">
         <v>25</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>7</v>
       </c>
       <c r="AC5">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <v>25</v>
@@ -1899,7 +1899,7 @@
         <v>7</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG5">
         <v>25</v>
@@ -1908,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ5">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         <v>7</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM5">
         <v>25</v>
@@ -1926,7 +1926,7 @@
         <v>7</v>
       </c>
       <c r="AO5">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AP5">
         <v>25</v>
@@ -1935,7 +1935,7 @@
         <v>7</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AS5">
         <v>25</v>
@@ -1944,88 +1944,88 @@
         <v>7</v>
       </c>
       <c r="AU5">
+        <v>30</v>
+      </c>
+      <c r="AV5">
+        <v>100</v>
+      </c>
+      <c r="AW5">
+        <v>30</v>
+      </c>
+      <c r="AX5">
+        <v>18</v>
+      </c>
+      <c r="AY5">
+        <v>100</v>
+      </c>
+      <c r="AZ5">
+        <v>30</v>
+      </c>
+      <c r="BA5">
+        <v>48</v>
+      </c>
+      <c r="BB5">
+        <v>100</v>
+      </c>
+      <c r="BC5">
+        <v>30</v>
+      </c>
+      <c r="BD5">
+        <v>59</v>
+      </c>
+      <c r="BE5">
+        <v>100</v>
+      </c>
+      <c r="BF5">
+        <v>30</v>
+      </c>
+      <c r="BG5">
         <v>43</v>
       </c>
-      <c r="AV5">
-        <v>100</v>
-      </c>
-      <c r="AW5">
-        <v>30</v>
-      </c>
-      <c r="AX5">
-        <v>44</v>
-      </c>
-      <c r="AY5">
-        <v>100</v>
-      </c>
-      <c r="AZ5">
-        <v>30</v>
-      </c>
-      <c r="BA5">
+      <c r="BH5">
+        <v>100</v>
+      </c>
+      <c r="BI5">
+        <v>30</v>
+      </c>
+      <c r="BJ5">
+        <v>72</v>
+      </c>
+      <c r="BK5">
+        <v>100</v>
+      </c>
+      <c r="BL5">
+        <v>30</v>
+      </c>
+      <c r="BM5">
+        <v>62</v>
+      </c>
+      <c r="BN5">
+        <v>100</v>
+      </c>
+      <c r="BO5">
+        <v>30</v>
+      </c>
+      <c r="BP5">
+        <v>30</v>
+      </c>
+      <c r="BQ5">
+        <v>15.2</v>
+      </c>
+      <c r="BR5">
         <v>42</v>
       </c>
-      <c r="BB5">
-        <v>100</v>
-      </c>
-      <c r="BC5">
-        <v>30</v>
-      </c>
-      <c r="BD5">
-        <v>35</v>
-      </c>
-      <c r="BE5">
-        <v>100</v>
-      </c>
-      <c r="BF5">
-        <v>30</v>
-      </c>
-      <c r="BG5">
-        <v>16</v>
-      </c>
-      <c r="BH5">
-        <v>100</v>
-      </c>
-      <c r="BI5">
-        <v>30</v>
-      </c>
-      <c r="BJ5">
-        <v>34</v>
-      </c>
-      <c r="BK5">
-        <v>100</v>
-      </c>
-      <c r="BL5">
-        <v>30</v>
-      </c>
-      <c r="BM5">
-        <v>36</v>
-      </c>
-      <c r="BN5">
-        <v>100</v>
-      </c>
-      <c r="BO5">
-        <v>30</v>
-      </c>
-      <c r="BP5">
-        <v>38</v>
-      </c>
-      <c r="BQ5">
-        <v>37.4</v>
-      </c>
-      <c r="BR5">
-        <v>33.6</v>
-      </c>
       <c r="BS5">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="BT5">
-        <v>12.8</v>
+        <v>40.6</v>
       </c>
       <c r="BU5">
-        <v>28.8</v>
+        <v>66</v>
       </c>
       <c r="BV5">
-        <v>28.8</v>
+        <v>59.6</v>
       </c>
       <c r="BW5">
         <v>100</v>
@@ -2052,37 +2052,37 @@
         <v>99</v>
       </c>
       <c r="CE5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CF5" t="s">
         <v>99</v>
       </c>
       <c r="CG5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CH5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CI5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CJ5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CK5">
-        <v>207.4</v>
+        <v>302.4</v>
       </c>
       <c r="CL5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CM5">
         <v>700</v>
       </c>
       <c r="CN5">
-        <v>29.62857142857143</v>
+        <v>43.2</v>
       </c>
       <c r="CO5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
